--- a/2023/italy_serie-b_2023-2024.xlsx
+++ b/2023/italy_serie-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>2.34</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>27/08/2023 19:42</t>
+          <t>26/08/2023 19:44</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>30/08/2023 20:29</t>
+          <t>30/08/2023 20:21</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>27/08/2023 19:42</t>
+          <t>26/08/2023 19:44</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.34</v>
+        <v>2.96</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>30/08/2023 20:29</t>
+          <t>30/08/2023 20:21</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.22</v>
+        <v>3.54</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>27/08/2023 19:42</t>
+          <t>26/08/2023 19:44</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.65</v>
+        <v>3.36</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>30/08/2023 20:29</t>
+          <t>30/08/2023 20:21</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/catanzaro-spezia/WOfOvstt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/bari-cittadella/t0JIJcAU/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bari</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.34</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>26/08/2023 19:44</t>
+          <t>27/08/2023 19:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>30/08/2023 20:21</t>
+          <t>30/08/2023 20:29</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>26/08/2023 19:44</t>
+          <t>27/08/2023 19:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2.96</v>
+        <v>3.34</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>30/08/2023 20:21</t>
+          <t>30/08/2023 20:29</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.54</v>
+        <v>2.22</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>26/08/2023 19:44</t>
+          <t>27/08/2023 19:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.36</v>
+        <v>2.65</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>30/08/2023 20:21</t>
+          <t>30/08/2023 20:29</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/bari-cittadella/t0JIJcAU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/catanzaro-spezia/WOfOvstt/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.63</v>
+        <v>2.24</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.94</v>
+        <v>2.4</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.93</v>
+        <v>3.16</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.33</v>
+        <v>2.85</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5.78</v>
+        <v>3.71</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>4.67</v>
+        <v>3.85</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/parma-reggiana/E7CEkbfb/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/sudtirol-ascoli/zN0NmxPA/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.24</v>
+        <v>1.63</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.16</v>
+        <v>3.93</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2.85</v>
+        <v>3.33</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.71</v>
+        <v>5.78</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.85</v>
+        <v>4.67</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/sudtirol-ascoli/zN0NmxPA/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/parma-reggiana/E7CEkbfb/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>1.97</v>
+        <v>2.78</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.19</v>
+        <v>2.44</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 16:11</t>
+          <t>17/09/2023 16:06</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 16:11</t>
+          <t>17/09/2023 16:06</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.98</v>
+        <v>2.86</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.75</v>
+        <v>3.18</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 16:11</t>
+          <t>17/09/2023 16:06</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/como-ternana/CIMgtfHp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/catanzaro-parma/Mw3Zpz9T/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.78</v>
+        <v>1.97</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.44</v>
+        <v>2.19</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:06</t>
+          <t>17/09/2023 16:11</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:06</t>
+          <t>17/09/2023 16:11</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.86</v>
+        <v>3.98</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.18</v>
+        <v>3.75</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:06</t>
+          <t>17/09/2023 16:11</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/catanzaro-parma/Mw3Zpz9T/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/como-ternana/CIMgtfHp/</t>
         </is>
       </c>
     </row>
@@ -4594,6 +4594,98 @@
       <c r="V45" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-b/sampdoria-cittadella/vV1h1egA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45191.85416666666</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>16/09/2023 13:14</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:22</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>16/09/2023 13:14</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>16/09/2023 13:14</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/palermo-cosenza/jRjNmct8/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-b_2023-2024.xlsx
+++ b/2023/italy_serie-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,30 +665,30 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.82</v>
+        <v>3.96</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10/08/2023 13:02</t>
+          <t>10/08/2023 13:03</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -696,31 +696,31 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.05</v>
+        <v>3.57</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>10/08/2023 13:02</t>
+          <t>10/08/2023 13:03</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2.98</v>
+        <v>3.27</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>19/08/2023 20:02</t>
+          <t>19/08/2023 20:21</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.82</v>
+        <v>1.97</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>10/08/2023 13:02</t>
+          <t>10/08/2023 13:03</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.05</v>
+        <v>2.47</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/cosenza-ascoli/xUZj9kje/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-sampdoria/4zd8D4ss/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.78</v>
+        <v>2.82</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.84</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,32 +796,32 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
+          <t>19/08/2023 20:02</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>10/08/2023 13:02</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>19/08/2023 20:21</t>
         </is>
       </c>
-      <c r="R4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>10/08/2023 13:02</t>
-        </is>
-      </c>
-      <c r="T4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>19/08/2023 20:21</t>
-        </is>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/cremonese-catanzaro/KhPe8951/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/cosenza-ascoli/xUZj9kje/</t>
         </is>
       </c>
     </row>
@@ -849,30 +849,30 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.96</v>
+        <v>1.78</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>10/08/2023 13:03</t>
+          <t>10/08/2023 13:02</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.15</v>
+        <v>2.05</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -880,15 +880,15 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.57</v>
+        <v>3.84</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>10/08/2023 13:03</t>
+          <t>10/08/2023 13:02</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.27</v>
+        <v>3.45</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -896,15 +896,15 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.97</v>
+        <v>4.56</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>10/08/2023 13:03</t>
+          <t>10/08/2023 13:02</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.47</v>
+        <v>3.98</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-sampdoria/4zd8D4ss/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/cremonese-catanzaro/KhPe8951/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>2.34</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>27/08/2023 19:42</t>
+          <t>26/08/2023 19:44</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>30/08/2023 20:24</t>
+          <t>30/08/2023 20:21</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.27</v>
+        <v>3.1</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>27/08/2023 19:42</t>
+          <t>26/08/2023 19:44</t>
         </is>
       </c>
       <c r="P22" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>30/08/2023 20:21</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>26/08/2023 19:44</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
         <v>3.36</v>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>30/08/2023 20:24</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>27/08/2023 19:42</t>
-        </is>
-      </c>
-      <c r="T22" t="n">
-        <v>2.49</v>
-      </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>30/08/2023 20:24</t>
+          <t>30/08/2023 20:21</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-cremonese/dWulZxAH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/bari-cittadella/t0JIJcAU/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.08</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>27/08/2023 13:42</t>
+          <t>27/08/2023 19:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.43</v>
+        <v>2.85</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>30/08/2023 20:27</t>
+          <t>30/08/2023 20:29</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.51</v>
+        <v>3.34</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>27/08/2023 13:42</t>
+          <t>27/08/2023 19:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>30/08/2023 20:27</t>
+          <t>30/08/2023 20:29</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.66</v>
+        <v>2.22</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>27/08/2023 13:42</t>
+          <t>27/08/2023 19:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.17</v>
+        <v>2.65</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>30/08/2023 20:27</t>
+          <t>30/08/2023 20:29</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/sampdoria-venezia/veoqzJfB/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/catanzaro-spezia/WOfOvstt/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bari</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.34</v>
+        <v>2.08</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>26/08/2023 19:44</t>
+          <t>27/08/2023 13:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>30/08/2023 20:21</t>
+          <t>30/08/2023 20:27</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.1</v>
+        <v>3.51</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>26/08/2023 19:44</t>
+          <t>27/08/2023 13:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.96</v>
+        <v>3.33</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>30/08/2023 20:21</t>
+          <t>30/08/2023 20:27</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.54</v>
+        <v>3.66</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>26/08/2023 19:44</t>
+          <t>27/08/2023 13:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.36</v>
+        <v>3.17</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>30/08/2023 20:21</t>
+          <t>30/08/2023 20:27</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/bari-cittadella/t0JIJcAU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/sampdoria-venezia/veoqzJfB/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>30/08/2023 20:29</t>
+          <t>30/08/2023 20:24</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.34</v>
+        <v>3.36</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>30/08/2023 20:29</t>
+          <t>30/08/2023 20:24</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.65</v>
+        <v>2.49</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>30/08/2023 20:29</t>
+          <t>30/08/2023 20:24</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/catanzaro-spezia/WOfOvstt/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-cremonese/dWulZxAH/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FeralpiSalo</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.55</v>
+        <v>1.94</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.8</v>
+        <v>3.93</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.1</v>
+        <v>3.33</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>4.99</v>
+        <v>5.78</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>7.07</v>
+        <v>4.67</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:29</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/palermo-feralpisalo/pY7Ajvuh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/parma-reggiana/E7CEkbfb/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>FeralpiSalo</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.37</v>
+        <v>1.73</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.37</v>
+        <v>1.55</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>02/09/2023 18:26</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.27</v>
+        <v>3.8</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.21</v>
+        <v>4.99</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.55</v>
+        <v>7.07</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>02/09/2023 18:26</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/modena-pisa/6s96iKPo/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/palermo-feralpisalo/pY7Ajvuh/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.63</v>
+        <v>2.37</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.94</v>
+        <v>2.37</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:26</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.93</v>
+        <v>3.27</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.33</v>
+        <v>3.1</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>5.78</v>
+        <v>3.21</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.67</v>
+        <v>3.55</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>02/09/2023 18:29</t>
+          <t>02/09/2023 18:26</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/parma-reggiana/E7CEkbfb/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/modena-pisa/6s96iKPo/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.59</v>
+        <v>2.05</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.15</v>
+        <v>3.47</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.26</v>
+        <v>3.35</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>6</v>
+        <v>3.79</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.04</v>
+        <v>4.13</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/spezia-como/hbBIlI94/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/cremonese-sampdoria/UqvdXGvU/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Bari</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.66</v>
+        <v>1.59</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.45</v>
+        <v>2.11</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.21</v>
+        <v>4.15</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.03</v>
+        <v>3.26</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.85</v>
+        <v>6</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.46</v>
+        <v>4.04</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-bari/lQ4RndvH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/spezia-como/hbBIlI94/</t>
         </is>
       </c>
     </row>
@@ -3425,30 +3425,30 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>2.05</v>
+        <v>2.51</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>30/08/2023 19:42</t>
+          <t>02/09/2023 01:42</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.05</v>
+        <v>4.04</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,15 +3456,15 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.47</v>
+        <v>3.26</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>30/08/2023 19:42</t>
+          <t>02/09/2023 01:42</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,15 +3472,15 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.79</v>
+        <v>3.07</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>30/08/2023 19:42</t>
+          <t>02/09/2023 01:42</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.13</v>
+        <v>2.08</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/cremonese-sampdoria/UqvdXGvU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/lecco-catanzaro/4xVNSzmo/</t>
         </is>
       </c>
     </row>
@@ -3517,30 +3517,30 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.51</v>
+        <v>2.66</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>02/09/2023 01:42</t>
+          <t>30/08/2023 19:42</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.04</v>
+        <v>2.45</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,15 +3548,15 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.26</v>
+        <v>3.21</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>02/09/2023 01:42</t>
+          <t>30/08/2023 19:42</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.32</v>
+        <v>3.03</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.07</v>
+        <v>2.85</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>02/09/2023 01:42</t>
+          <t>30/08/2023 19:42</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.08</v>
+        <v>3.46</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/lecco-catanzaro/4xVNSzmo/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-bari/lQ4RndvH/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.78</v>
+        <v>1.97</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.44</v>
+        <v>2.19</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 16:06</t>
+          <t>17/09/2023 16:11</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 16:06</t>
+          <t>17/09/2023 16:11</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.86</v>
+        <v>3.98</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.18</v>
+        <v>3.75</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 16:06</t>
+          <t>17/09/2023 16:11</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/catanzaro-parma/Mw3Zpz9T/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/como-ternana/CIMgtfHp/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.97</v>
+        <v>2.78</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.19</v>
+        <v>2.44</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:11</t>
+          <t>17/09/2023 16:06</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:11</t>
+          <t>17/09/2023 16:06</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.98</v>
+        <v>2.86</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.75</v>
+        <v>3.18</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:11</t>
+          <t>17/09/2023 16:06</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/como-ternana/CIMgtfHp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/catanzaro-parma/Mw3Zpz9T/</t>
         </is>
       </c>
     </row>
@@ -4686,6 +4686,742 @@
       <c r="V46" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-b/palermo-cosenza/jRjNmct8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>16/09/2023 13:14</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>16/09/2023 13:14</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:35</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>16/09/2023 13:14</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/brescia-venezia/27V8L7og/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/feralpisalo-pisa/YkMxtoN1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/modena-lecco/CtLtu5x8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-sudtirol/xrgZpeQQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45192.67708333334</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:14</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/spezia-reggiana/OvkVoyBK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45193.67708333334</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:07</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:04</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:07</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/bari-catanzaro/pUTPrmwq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45193.67708333334</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>18/09/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/cittadella-como/ShJUs7hk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45193.67708333334</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:02</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:02</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:02</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/parma-sampdoria/UHkRnHeE/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-b_2023-2024.xlsx
+++ b/2023/italy_serie-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.05</v>
+        <v>2.66</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.47</v>
+        <v>3.21</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.35</v>
+        <v>3.03</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.79</v>
+        <v>2.85</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.13</v>
+        <v>3.46</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/cremonese-sampdoria/UqvdXGvU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-bari/lQ4RndvH/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Bari</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.66</v>
+        <v>2.05</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.21</v>
+        <v>3.47</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.03</v>
+        <v>3.35</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.85</v>
+        <v>3.79</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.46</v>
+        <v>4.13</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-bari/lQ4RndvH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/cremonese-sampdoria/UqvdXGvU/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>1.97</v>
+        <v>2.78</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.19</v>
+        <v>2.44</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 16:11</t>
+          <t>17/09/2023 16:06</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 16:11</t>
+          <t>17/09/2023 16:06</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.98</v>
+        <v>2.86</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.75</v>
+        <v>3.18</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 16:11</t>
+          <t>17/09/2023 16:06</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/como-ternana/CIMgtfHp/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/catanzaro-parma/Mw3Zpz9T/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.78</v>
+        <v>1.97</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.44</v>
+        <v>2.19</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:06</t>
+          <t>17/09/2023 16:11</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:06</t>
+          <t>17/09/2023 16:11</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.86</v>
+        <v>3.98</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.18</v>
+        <v>3.75</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 16:06</t>
+          <t>17/09/2023 16:11</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/catanzaro-parma/Mw3Zpz9T/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/como-ternana/CIMgtfHp/</t>
         </is>
       </c>
     </row>
@@ -5422,6 +5422,650 @@
       <c r="V54" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-b/parma-sampdoria/UHkRnHeE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45195.76041666666</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>24/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:10</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>24/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>26/09/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>24/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>26/09/2023 17:52</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/cosenza-cremonese/8WSDwDI0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45195.76041666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>24/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:11</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>24/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:11</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>24/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>26/09/2023 18:11</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/lecco-feralpisalo/jeIIxXX6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45195.85416666666</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:13</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:26</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:26</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:26</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/ascoli-ternana/rPV1tFYs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45195.85416666666</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/reggiana-pisa/I1A40zQD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45195.85416666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/spezia-brescia/dUUCKR0a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45195.85416666666</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:13</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/sudtirol-modena/dh98afuK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45195.85416666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:13</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:28</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:28</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/venezia-palermo/ET3DbEfQ/</t>
         </is>
       </c>
     </row>

--- a/2023/italy_serie-b_2023-2024.xlsx
+++ b/2023/italy_serie-b_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,30 +665,30 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.96</v>
+        <v>1.78</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10/08/2023 13:03</t>
+          <t>10/08/2023 13:02</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.15</v>
+        <v>2.05</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -696,15 +696,15 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.57</v>
+        <v>3.84</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>10/08/2023 13:03</t>
+          <t>10/08/2023 13:02</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.27</v>
+        <v>3.45</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -712,15 +712,15 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.97</v>
+        <v>4.56</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>10/08/2023 13:03</t>
+          <t>10/08/2023 13:02</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.47</v>
+        <v>3.98</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-sampdoria/4zd8D4ss/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/cremonese-catanzaro/KhPe8951/</t>
         </is>
       </c>
     </row>
@@ -849,30 +849,30 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.78</v>
+        <v>3.96</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>10/08/2023 13:02</t>
+          <t>10/08/2023 13:03</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.05</v>
+        <v>3.15</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -880,15 +880,15 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.84</v>
+        <v>3.57</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>10/08/2023 13:02</t>
+          <t>10/08/2023 13:03</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.45</v>
+        <v>3.27</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -896,15 +896,15 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.56</v>
+        <v>1.97</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>10/08/2023 13:02</t>
+          <t>10/08/2023 13:03</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.98</v>
+        <v>2.47</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/cremonese-catanzaro/KhPe8951/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-sampdoria/4zd8D4ss/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FeralpiSalo</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.73</v>
+        <v>2.37</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.55</v>
+        <v>2.37</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:26</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.8</v>
+        <v>3.27</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:23</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.99</v>
+        <v>3.21</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>7.07</v>
+        <v>3.55</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>02/09/2023 18:24</t>
+          <t>02/09/2023 18:26</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/palermo-feralpisalo/pY7Ajvuh/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/modena-pisa/6s96iKPo/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>FeralpiSalo</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.37</v>
+        <v>1.73</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.37</v>
+        <v>1.55</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>02/09/2023 18:26</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.27</v>
+        <v>3.8</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>02/09/2023 18:23</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.21</v>
+        <v>4.99</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.55</v>
+        <v>7.07</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>02/09/2023 18:26</t>
+          <t>02/09/2023 18:24</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/modena-pisa/6s96iKPo/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/palermo-feralpisalo/pY7Ajvuh/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Bari</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.66</v>
+        <v>1.59</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.45</v>
+        <v>2.11</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.21</v>
+        <v>4.15</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.03</v>
+        <v>3.26</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.85</v>
+        <v>6</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.46</v>
+        <v>4.04</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-bari/lQ4RndvH/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/spezia-como/hbBIlI94/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.59</v>
+        <v>2.66</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.11</v>
+        <v>2.45</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>4.15</v>
+        <v>3.21</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.26</v>
+        <v>3.03</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>6</v>
+        <v>2.85</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.04</v>
+        <v>3.46</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/spezia-como/hbBIlI94/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-bari/lQ4RndvH/</t>
         </is>
       </c>
     </row>
@@ -3425,30 +3425,30 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2.51</v>
+        <v>2.05</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>02/09/2023 01:42</t>
+          <t>30/08/2023 19:42</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4.04</v>
+        <v>2.05</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,15 +3456,15 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.26</v>
+        <v>3.47</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>02/09/2023 01:42</t>
+          <t>30/08/2023 19:42</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,15 +3472,15 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.07</v>
+        <v>3.79</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>02/09/2023 01:42</t>
+          <t>30/08/2023 19:42</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.08</v>
+        <v>4.13</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/lecco-catanzaro/4xVNSzmo/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/cremonese-sampdoria/UqvdXGvU/</t>
         </is>
       </c>
     </row>
@@ -3517,30 +3517,30 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.05</v>
+        <v>2.51</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>30/08/2023 19:42</t>
+          <t>02/09/2023 01:42</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.05</v>
+        <v>4.04</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,15 +3548,15 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.47</v>
+        <v>3.26</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>30/08/2023 19:42</t>
+          <t>02/09/2023 01:42</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,15 +3564,15 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.79</v>
+        <v>3.07</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>30/08/2023 19:42</t>
+          <t>02/09/2023 01:42</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.13</v>
+        <v>2.08</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/cremonese-sampdoria/UqvdXGvU/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/lecco-catanzaro/4xVNSzmo/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.38</v>
+        <v>3.33</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>16/09/2023 13:55</t>
+          <t>16/09/2023 13:53</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.2</v>
+        <v>3.18</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.25</v>
+        <v>3.12</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16/09/2023 13:55</t>
+          <t>16/09/2023 13:53</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>16/09/2023 13:55</t>
+          <t>16/09/2023 13:53</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/ascoli-palermo/rm4VoGgN/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/lecco-brescia/l4R4MmWn/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.32</v>
+        <v>2.11</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.21</v>
+        <v>2.33</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:53</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.09</v>
+        <v>3.21</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16/09/2023 13:55</t>
+          <t>16/09/2023 13:53</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.61</v>
+        <v>4.04</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.05</v>
+        <v>3.94</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:53</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/cosenza-sudtirol/j9LcuEWj/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/pisa-bari/IFDq3HOc/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FeralpiSalo</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.35</v>
+        <v>2.32</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.78</v>
+        <v>2.21</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16/09/2023 13:56</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.31</v>
+        <v>3.09</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16/09/2023 13:54</t>
+          <t>16/09/2023 13:55</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.32</v>
+        <v>3.61</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.3</v>
+        <v>4.05</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 13:56</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/feralpisalo-modena/4C9u4c9i/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/cosenza-sudtirol/j9LcuEWj/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.33</v>
+        <v>3.38</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/09/2023 13:53</t>
+          <t>16/09/2023 13:55</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16/09/2023 13:53</t>
+          <t>16/09/2023 13:55</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>06/09/2023 01:13</t>
+          <t>04/09/2023 18:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>16/09/2023 13:53</t>
+          <t>16/09/2023 13:55</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/lecco-brescia/l4R4MmWn/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/ascoli-palermo/rm4VoGgN/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>FeralpiSalo</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Bari</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.11</v>
+        <v>3.35</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.33</v>
+        <v>3.78</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:53</t>
+          <t>16/09/2023 13:56</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.21</v>
+        <v>3.31</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.9</v>
+        <v>3.04</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:53</t>
+          <t>16/09/2023 13:54</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.04</v>
+        <v>2.32</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>04/09/2023 18:12</t>
+          <t>06/09/2023 01:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.94</v>
+        <v>2.3</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:53</t>
+          <t>16/09/2023 13:56</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/pisa-bari/IFDq3HOc/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/feralpisalo-modena/4C9u4c9i/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>FeralpiSalo</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>3.07</v>
+        <v>2.02</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>19/09/2023 13:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.16</v>
+        <v>2.07</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>23/09/2023 13:53</t>
+          <t>23/09/2023 13:59</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.22</v>
+        <v>3.42</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>19/09/2023 13:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>23/09/2023 13:53</t>
+          <t>23/09/2023 13:59</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.49</v>
+        <v>4.06</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>19/09/2023 13:42</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.6</v>
+        <v>4.35</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>23/09/2023 13:53</t>
+          <t>23/09/2023 13:59</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/feralpisalo-pisa/YkMxtoN1/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-sudtirol/xrgZpeQQ/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>FeralpiSalo</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.02</v>
+        <v>3.07</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 13:42</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.07</v>
+        <v>3.16</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>23/09/2023 13:59</t>
+          <t>23/09/2023 13:53</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.42</v>
+        <v>3.22</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 13:42</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.17</v>
+        <v>3.07</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>23/09/2023 13:59</t>
+          <t>23/09/2023 13:53</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.06</v>
+        <v>2.49</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 13:42</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.35</v>
+        <v>2.6</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>23/09/2023 13:59</t>
+          <t>23/09/2023 13:53</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/italy/serie-b/ternana-sudtirol/xrgZpeQQ/</t>
+          <t>https://www.betexplorer.com/football/italy/serie-b/feralpisalo-pisa/YkMxtoN1/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,282 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/italy/serie-b/venezia-palermo/ET3DbEfQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45196.85416666666</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/como-sampdoria/UuU9vg3f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45196.85416666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/catanzaro-cittadella/MFU5uZml/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45196.85416666666</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:28</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/italy/serie-b/parma-bari/4bMMyimD/</t>
         </is>
       </c>
     </row>
